--- a/resources/experiment 2/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8598549772719578</v>
+        <v>0.9881725725923224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8598550117548157</v>
+        <v>0.9890567261139102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8598550117548157</v>
+        <v>0.7738338243319296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8754994039037898</v>
+        <v>0.983960197506473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8754976858836123</v>
+        <v>0.9864593502656794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8754976858836123</v>
+        <v>0.7940076272185185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5937235142444521</v>
+        <v>0.8132724645637691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5937235142444521</v>
+        <v>0.7581345919560751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5937235142444521</v>
+        <v>0.4629463149287104</v>
       </c>
     </row>
   </sheetData>
